--- a/data/trans_dic/P20_4_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P20_4_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha sentido menos unido/a con el resto de la sociedad</t>
+          <t>Población que se ha sentido menos unido/a con el resto de la sociedad (tasa de respuesta: 99,43%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>51,74%</t>
+          <t>46,24%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>45,04%</t>
+          <t>50,28%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>33,37%</t>
+          <t>65,74%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>37,33%</t>
+          <t>58,01%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>41,87%</t>
+          <t>56,63%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>40,98%</t>
+          <t>54,3%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>41,7; 63,97</t>
+          <t>25,89; 64,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>31,57; 60,4</t>
+          <t>22,79; 70,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,46; 42,7</t>
+          <t>50,62; 78,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>28,65; 48,06</t>
+          <t>43,11; 72,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>35,31; 50,26</t>
+          <t>43,15; 67,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>33,26; 50,42</t>
+          <t>38,17; 65,44</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>33,96%</t>
+          <t>64,29%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>35,29%</t>
+          <t>63,71%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>30,8%</t>
+          <t>67,83%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>40,08%</t>
+          <t>64,16%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>32,31%</t>
+          <t>66,12%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>37,77%</t>
+          <t>63,94%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>27,75; 42,26</t>
+          <t>53,25; 72,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>28,84; 41,9</t>
+          <t>54,84; 72,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,81; 36,42</t>
+          <t>61,02; 74,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>33,83; 45,86</t>
+          <t>56,94; 70,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,8; 36,84</t>
+          <t>59,59; 72,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,54; 41,81</t>
+          <t>58,31; 69,87</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>33,14%</t>
+          <t>66,01%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>44,38%</t>
+          <t>53,75%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>28,23%</t>
+          <t>72,81%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>37,85%</t>
+          <t>62,92%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>30,49%</t>
+          <t>69,79%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>40,91%</t>
+          <t>58,83%</t>
         </is>
       </c>
     </row>
@@ -799,39 +800,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>26,52; 40,53</t>
+          <t>56,17; 74,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>37,14; 51,48</t>
+          <t>44,33; 62,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>23,01; 34,58</t>
+          <t>65,43; 79,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>32,01; 43,7</t>
+          <t>54,65; 70,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,13; 34,89</t>
+          <t>63,95; 74,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>35,99; 45,83</t>
+          <t>52,86; 64,64</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>36,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>39,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>30,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>38,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>33,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>39,39%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,46 +880,844 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>32,37; 41,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>35,3; 44,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,94; 34,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>35,12; 42,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>30,54; 36,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>36,38; 42,49</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>62,47%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>58,05%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>69,61%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>62,82%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>66,29%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>60,59%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>54,34; 68,04</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>50,39; 64,19</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>64,59; 73,96</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>57,65; 67,85</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>62,17; 69,97</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>56,01; 64,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha sentido menos unido/a con el resto de la sociedad (tasa de respuesta: 99,43%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>47788</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>63699</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>77445</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>79565</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>125233</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>143264</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>26758; 67145</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>28868; 89204</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>59630; 92041</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>59126; 99007</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>95426; 149662</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>100726; 172669</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>224.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>235308</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>272221</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>264965</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>295057</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>500273</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>567279</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>194902; 266772</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>234336; 309306</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>238348; 291198</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>261862; 325320</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>450885; 546488</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>517281; 619859</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>205.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>188730</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>178935</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>261823</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>260229</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>450553</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>439164</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>160601; 211891</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>147577; 208977</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>235287; 286874</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>225994; 290627</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>412819; 483739</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>394558; 482524</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>280.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>245.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>486.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>425.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>471827</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>514855</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>604233</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>634852</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1076060</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1149707</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>410425; 513871</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>446933; 569254</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>560703; 642034</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>582624; 685694</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1009199; 1135884</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1062764; 1224086</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>